--- a/APM files/141463953/141463953 EXPORT RT&RP Cloud Export_Clone.xlsx
+++ b/APM files/141463953/141463953 EXPORT RT&RP Cloud Export_Clone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/141463953/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68884044-EE7D-8E48-B0B9-E4DE9E5D0B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350380AB-07F1-CB43-A83B-E01652E3A113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="620" windowWidth="25600" windowHeight="26880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,7 +542,7 @@
   <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
